--- a/SQCFramework-Evaluation-Results.xlsx
+++ b/SQCFramework-Evaluation-Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="25">
   <si>
     <t>#Super Queries</t>
   </si>
@@ -82,12 +82,30 @@
   <si>
     <t>#Correct Test</t>
   </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>SWDF  Diversity Scores</t>
+  </si>
+  <si>
+    <t>DBpedia  Diversity Scores</t>
+  </si>
+  <si>
+    <t>FEASIBLE-Exemplars</t>
+  </si>
+  <si>
+    <t>SWDF Similarity Errors</t>
+  </si>
+  <si>
+    <t>Dbpedia Similarity Errors</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +115,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -221,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -233,19 +258,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -257,9 +284,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,22 +516,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.8891554161624999E-2</c:v>
+                  <c:v>1.9567474711416899E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8783585206547899E-2</c:v>
+                  <c:v>1.7917483877331102E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.4990146751097095E-3</c:v>
+                  <c:v>9.6651473301599903E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8465153812231598E-3</c:v>
+                  <c:v>4.8145045160019597E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6995966102512101E-3</c:v>
+                  <c:v>3.07381643140924E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9133059044179599E-3</c:v>
+                  <c:v>2.91673016868543E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -537,10 +570,10 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="12700">
                 <a:solidFill>
                   <a:schemeClr val="accent6">
-                    <a:lumMod val="75000"/>
+                    <a:lumMod val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
@@ -582,22 +615,208 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.25718283896458E-2</c:v>
+                  <c:v>1.8970848026361099E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.15771395725355E-2</c:v>
+                  <c:v>1.52494353251905E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6955218595217102E-3</c:v>
+                  <c:v>8.8496315141576298E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4032964297806504E-3</c:v>
+                  <c:v>4.6598488133117099E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7530782573444998E-3</c:v>
+                  <c:v>3.3301202473913199E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6380720646447201E-3</c:v>
+                  <c:v>2.6916443756781401E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$28:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$28:$J$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>4.9100702507345302E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.23619955572806E-3</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>7.4656243358339704E-4</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>7.1767830573277105E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>6.1136728772537199E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>2.79561925064952E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FEASIBLE-Exemplars</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$28:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$28:$K$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0660418694891599E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7186564587719599E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5062464057675799E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4420105478130092E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7309708970368903E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.13438255182108E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -614,11 +833,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105917088"/>
-        <c:axId val="105917648"/>
+        <c:axId val="125545280"/>
+        <c:axId val="125545840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105917088"/>
+        <c:axId val="125545280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,7 +952,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105917648"/>
+        <c:crossAx val="125545840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -741,7 +960,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105917648"/>
+        <c:axId val="125545840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -832,7 +1051,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105917088"/>
+        <c:crossAx val="125545280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -910,10 +1129,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21024912510936131"/>
-          <c:y val="6.0185185185185182E-2"/>
-          <c:w val="0.72215157480314962"/>
-          <c:h val="7.8125546806649182E-2"/>
+          <c:x val="0.14913801399825022"/>
+          <c:y val="1.8948146945549329E-2"/>
+          <c:w val="0.82729396325459303"/>
+          <c:h val="0.14776740536298941"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1000,6 +1219,437 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
+          <c:x val="0.17692009446090795"/>
+          <c:y val="0.22222222222222221"/>
+          <c:w val="0.79252438992344254"/>
+          <c:h val="0.73577136191309422"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TreeSolver</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.6321334503950834</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFMU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.7973040439340988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JSAC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.94811693442191203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SPARQL-Algebra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.97879282218597063</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="267"/>
+        <c:overlap val="-43"/>
+        <c:axId val="125550320"/>
+        <c:axId val="125550880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="125550320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125550880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="125550880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>QMpH</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.5010082209548335E-2"/>
+              <c:y val="0.47772346165062701"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="125550320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24014127488510942"/>
+          <c:y val="0.12557815689705454"/>
+          <c:w val="0.68598540645410155"/>
+          <c:h val="7.8125546806649182E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
           <c:x val="0.1537338145231846"/>
           <c:y val="0.15682925051035287"/>
           <c:w val="0.81571062992125987"/>
@@ -1054,54 +1704,54 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$36:$F$41</c:f>
+              <c:f>Sheet1!$F$47:$F$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$36:$G$41</c:f>
+              <c:f>Sheet1!$G$47:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.52229041004457E-2</c:v>
+                  <c:v>0.309465173734149</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4334315513423601E-2</c:v>
+                  <c:v>0.27977402271997898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.31577767634493E-2</c:v>
+                  <c:v>0.243960138566896</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.6452343831792096E-3</c:v>
+                  <c:v>0.22131900170556301</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9639150126433701E-3</c:v>
+                  <c:v>0.20626152701449599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5056571228811997E-3</c:v>
+                  <c:v>0.19440753418047499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1153,54 +1803,54 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$36:$F$41</c:f>
+              <c:f>Sheet1!$F$47:$F$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$36:$H$41</c:f>
+              <c:f>Sheet1!$H$47:$H$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.52229041004457E-2</c:v>
+                  <c:v>0.262174775817127</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.19483234854467E-3</c:v>
+                  <c:v>0.24719308138958401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.28823303488279E-3</c:v>
+                  <c:v>0.20761485170226801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7349311309348102E-3</c:v>
+                  <c:v>0.18770738943512999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1363134867243799E-3</c:v>
+                  <c:v>0.175225277703628</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8334711030340001E-3</c:v>
+                  <c:v>0.174622538458618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1239,7 +1889,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="12700">
                 <a:solidFill>
                   <a:schemeClr val="accent6">
                     <a:lumMod val="75000"/>
@@ -1252,54 +1902,240 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$36:$F$41</c:f>
+              <c:f>Sheet1!$F$47:$F$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$36:$I$41</c:f>
+              <c:f>Sheet1!$I$47:$I$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.0898741423802101E-2</c:v>
+                  <c:v>0.24664609754119399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.19483234854467E-3</c:v>
+                  <c:v>0.22151424659107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.28823303488279E-3</c:v>
+                  <c:v>0.19231665221215999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6827429028471999E-3</c:v>
+                  <c:v>0.17580387638547701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.05992038269861E-3</c:v>
+                  <c:v>0.17135087665391799</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8334711030340001E-3</c:v>
+                  <c:v>0.167085891915911</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$47:$F$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$47:$J$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>5.5380529323011997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3967095171081104E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0218801958504796E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>9.3995127761845099E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>0.106971896639363</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>0.109640936767445</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FEASIBLE-Exemplars</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$47:$F$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$47:$K$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.33348159103366298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29694786481843399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.249224139112034</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22486732884987801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.207818466029801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.195621274424957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1316,11 +2152,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="266984096"/>
-        <c:axId val="270140400"/>
+        <c:axId val="190373696"/>
+        <c:axId val="190374256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="266984096"/>
+        <c:axId val="190373696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1435,7 +2271,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270140400"/>
+        <c:crossAx val="190374256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1443,7 +2279,1809 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="270140400"/>
+        <c:axId val="190374256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>diversity</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Score</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190373696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17969356955380578"/>
+          <c:y val="1.8662597971101362E-2"/>
+          <c:w val="0.82030643044619422"/>
+          <c:h val="0.14879001716480938"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1537338145231846"/>
+          <c:y val="0.15682925051035287"/>
+          <c:w val="0.81571062992125987"/>
+          <c:h val="0.69813939924176149"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FEASIBLE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$56:$F$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$56:$G$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.29641344867920899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35234132226750198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34212196627227198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33079821823171401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.321723791094226</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.316514332149329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KMeans++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$56:$F$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$56:$H$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.29641344867920899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31782733262381702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31090286904606101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.303554788889694</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30218646143348599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29251822423375801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DBScan+KMeans++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$56:$F$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$56:$I$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.13618352822852001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31782733262381702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31090286904606101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30481937487161098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30218646143348599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29251822423375801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$56:$F$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$56:$J$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.8569970957032201E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.106099599950435</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.183339983690509</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>0.23845013542764101</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>0.24995468979448701</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>0.26169082613972799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FEASIBLE-Exemplars</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$56:$F$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$56:$K$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.45997653240821801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.358936900129949</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34617194616587499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33257397105638598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32299758748266799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31715505426882701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="190378736"/>
+        <c:axId val="190379296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="190378736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>#Super</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> qUERIES</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190379296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="190379296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>diversity</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Score</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190378736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17969353246048922"/>
+          <c:y val="2.3276208121043692E-2"/>
+          <c:w val="0.77407622292827427"/>
+          <c:h val="0.14879001716480938"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1537338145231846"/>
+          <c:y val="0.15682925051035287"/>
+          <c:w val="0.81571062992125987"/>
+          <c:h val="0.69813939924176149"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FEASIBLE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$36:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$36:$G$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.52229041004457E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4334315513423601E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.31577767634493E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6452343831792096E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9639150126433701E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5056571228811997E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KMeans++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$36:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$36:$H$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.52229041004457E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.19483234854467E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.28823303488279E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7245797972341701E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1363134867243799E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8334711030340001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DBScan+KMeans++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$36:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$36:$I$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.9898741423802101E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.19483234854467E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.28823303488279E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6670246918019101E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1363134867243799E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8334711030340001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$36:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$36:$J$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.3799784761000899E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1026282176035198E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2305567351882601E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5478864994579196E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.99946797370032E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>1.93827300695204E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FEASIBLE-Exemplars</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$36:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$36:$K$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.9724634560576802E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4822507750314301E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3405508415004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.54223507948182E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8905581386576797E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4720625511192004E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="190903952"/>
+        <c:axId val="190904512"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="190903952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>#Super</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> qUERIES</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190904512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="190904512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1534,7 +4172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266984096"/>
+        <c:crossAx val="190903952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1612,10 +4250,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21024912510936131"/>
-          <c:y val="6.0185185185185182E-2"/>
-          <c:w val="0.72215157480314962"/>
-          <c:h val="7.8125546806649182E-2"/>
+          <c:x val="0.17136027587194874"/>
+          <c:y val="1.8948146945549329E-2"/>
+          <c:w val="0.77407622292827427"/>
+          <c:h val="0.14776740536298941"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1655,437 +4293,6 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.17692009446090795"/>
-          <c:y val="0.22222222222222221"/>
-          <c:w val="0.79252438992344254"/>
-          <c:h val="0.73577136191309422"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$46</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TreeSolver</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.6321334503950834</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$46</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AFMU</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.7973040439340988</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$46</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>JSAC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.94811693442191203</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$46</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SPARQL-Algebra</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.97879282218597063</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="267"/>
-        <c:overlap val="-43"/>
-        <c:axId val="194241136"/>
-        <c:axId val="194240576"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="194241136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194240576"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="194240576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>QMpH</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="3.5010082209548335E-2"/>
-              <c:y val="0.47772346165062701"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="194241136"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:pattFill prst="ltDnDiag">
-          <a:fgClr>
-            <a:schemeClr val="dk1">
-              <a:lumMod val="15000"/>
-              <a:lumOff val="85000"/>
-            </a:schemeClr>
-          </a:fgClr>
-          <a:bgClr>
-            <a:schemeClr val="lt1"/>
-          </a:bgClr>
-        </a:pattFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.24014127488510942"/>
-          <c:y val="0.12557815689705454"/>
-          <c:w val="0.68598540645410155"/>
-          <c:h val="7.8125546806649182E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -2232,6 +4439,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -2754,527 +5041,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3823,20 +5589,1583 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3857,23 +7186,21 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3889,21 +7216,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3912,6 +7241,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4183,10 +7576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:AD55"/>
+  <dimension ref="E1:AD73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52:I55"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4197,7 +7590,7 @@
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" customWidth="1"/>
     <col min="12" max="12" width="18.140625" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" customWidth="1"/>
@@ -4206,7 +7599,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4214,49 +7607,49 @@
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15" t="s">
+      <c r="J2" s="24"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="16"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
       <c r="Q2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="12" t="s">
+      <c r="S2" s="18"/>
+      <c r="T2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="14"/>
-      <c r="V2" s="15" t="s">
+      <c r="U2" s="20"/>
+      <c r="V2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="16"/>
+      <c r="W2" s="22"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="12" t="s">
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="15" t="s">
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" s="16"/>
+      <c r="AD2" s="22"/>
     </row>
     <row r="3" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E3" s="3"/>
@@ -4306,7 +7699,7 @@
       <c r="W3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="19" t="s">
+      <c r="X3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="Y3" s="3" t="s">
@@ -4380,7 +7773,7 @@
       <c r="W4" s="5">
         <v>5</v>
       </c>
-      <c r="X4" s="19">
+      <c r="X4" s="11">
         <v>2</v>
       </c>
       <c r="Y4" s="3">
@@ -4454,7 +7847,7 @@
       <c r="W5" s="5">
         <v>6</v>
       </c>
-      <c r="X5" s="19">
+      <c r="X5" s="11">
         <v>4</v>
       </c>
       <c r="Y5" s="3">
@@ -4528,7 +7921,7 @@
       <c r="W6" s="5">
         <v>7</v>
       </c>
-      <c r="X6" s="19">
+      <c r="X6" s="11">
         <v>6</v>
       </c>
       <c r="Y6" s="3">
@@ -4602,7 +7995,7 @@
       <c r="W7" s="5">
         <v>7</v>
       </c>
-      <c r="X7" s="19">
+      <c r="X7" s="11">
         <v>9</v>
       </c>
       <c r="Y7" s="3">
@@ -4676,7 +8069,7 @@
       <c r="W8" s="5">
         <v>7</v>
       </c>
-      <c r="X8" s="19">
+      <c r="X8" s="11">
         <v>12</v>
       </c>
       <c r="Y8" s="3">
@@ -4796,7 +8189,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="4"/>
@@ -4818,21 +8211,21 @@
       <c r="E12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12" t="s">
+      <c r="G12" s="23"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15" t="s">
+      <c r="J12" s="24"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="16"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="22"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
@@ -5199,382 +8592,800 @@
         <v>0.17999456786107892</v>
       </c>
     </row>
+    <row r="26" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="27" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="F27" t="str">
+      <c r="F27" s="1" t="str">
         <f>E2</f>
         <v>#Super Queries</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="12" t="s">
         <v>7</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="F28">
+      <c r="F28" s="3">
         <f>E4</f>
         <v>15</v>
       </c>
-      <c r="G28">
-        <f>G4</f>
+      <c r="G28" s="4">
         <v>3.6048835714695103E-2</v>
       </c>
-      <c r="H28">
-        <f>J4</f>
-        <v>1.8891554161624999E-2</v>
-      </c>
-      <c r="I28">
-        <f>M4</f>
-        <v>1.25718283896458E-2</v>
+      <c r="H28" s="4">
+        <v>1.9567474711416899E-2</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1.8970848026361099E-2</v>
+      </c>
+      <c r="J28" s="15">
+        <v>4.9100702507345302E-3</v>
+      </c>
+      <c r="K28" s="5">
+        <v>4.0660418694891599E-2</v>
+      </c>
+      <c r="L28">
+        <f>AVERAGE(G47:G52)</f>
+        <v>0.24253123298692633</v>
+      </c>
+      <c r="M28">
+        <f t="shared" ref="M28:O28" si="0">AVERAGE(H47:H52)</f>
+        <v>0.20908965241772584</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>0.19578627354995501</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>8.6695731270208506E-2</v>
       </c>
     </row>
     <row r="29" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="F29">
-        <f t="shared" ref="F29:F33" si="0">E5</f>
+      <c r="F29" s="3">
+        <f t="shared" ref="F29:F33" si="1">E5</f>
         <v>25</v>
       </c>
-      <c r="G29">
-        <f t="shared" ref="G29:G33" si="1">G5</f>
+      <c r="G29" s="4">
         <v>2.3490330117794202E-2</v>
       </c>
-      <c r="H29">
-        <f t="shared" ref="H29:H33" si="2">J5</f>
-        <v>1.8783585206547899E-2</v>
-      </c>
-      <c r="I29">
-        <f t="shared" ref="I29:I33" si="3">M5</f>
-        <v>1.15771395725355E-2</v>
+      <c r="H29" s="4">
+        <v>1.7917483877331102E-2</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1.52494353251905E-2</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1.23619955572806E-3</v>
+      </c>
+      <c r="K29" s="5">
+        <v>2.7186564587719599E-2</v>
       </c>
     </row>
     <row r="30" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="F30">
-        <f t="shared" si="0"/>
+      <c r="F30" s="3">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="1"/>
+      <c r="G30" s="4">
         <v>1.3477242025439E-2</v>
       </c>
-      <c r="H30">
-        <f t="shared" si="2"/>
-        <v>9.4990146751097095E-3</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="3"/>
-        <v>8.6955218595217102E-3</v>
+      <c r="H30" s="4">
+        <v>9.6651473301599903E-3</v>
+      </c>
+      <c r="I30" s="4">
+        <v>8.8496315141576298E-3</v>
+      </c>
+      <c r="J30" s="15">
+        <v>7.4656243358339704E-4</v>
+      </c>
+      <c r="K30" s="5">
+        <v>1.5062464057675799E-2</v>
+      </c>
+      <c r="O30">
+        <f>O28/L28</f>
+        <v>0.35746213055735321</v>
       </c>
     </row>
     <row r="31" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="F31">
-        <f t="shared" si="0"/>
+      <c r="F31" s="3">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
+      <c r="G31" s="4">
         <v>8.5487558410192108E-3</v>
       </c>
-      <c r="H31">
-        <f t="shared" si="2"/>
-        <v>4.8465153812231598E-3</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="3"/>
-        <v>4.4032964297806504E-3</v>
+      <c r="H31" s="4">
+        <v>4.8145045160019597E-3</v>
+      </c>
+      <c r="I31" s="4">
+        <v>4.6598488133117099E-3</v>
+      </c>
+      <c r="J31" s="15">
+        <v>7.1767830573277105E-4</v>
+      </c>
+      <c r="K31" s="5">
+        <v>9.4420105478130092E-3</v>
       </c>
     </row>
     <row r="32" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="F32">
-        <f t="shared" si="0"/>
+      <c r="F32" s="3">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="4">
+        <v>6.5587137028141297E-3</v>
+      </c>
+      <c r="H32" s="4">
+        <v>3.07381643140924E-3</v>
+      </c>
+      <c r="I32" s="4">
+        <v>3.3301202473913199E-3</v>
+      </c>
+      <c r="J32" s="15">
+        <v>6.1136728772537199E-4</v>
+      </c>
+      <c r="K32" s="5">
+        <v>6.7309708970368903E-3</v>
+      </c>
+      <c r="O32">
+        <f>L28/O28</f>
+        <v>2.797499132120107</v>
+      </c>
+    </row>
+    <row r="33" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="6">
         <f t="shared" si="1"/>
-        <v>6.5587137028141297E-3</v>
-      </c>
-      <c r="H32">
+        <v>125</v>
+      </c>
+      <c r="G33" s="7">
+        <v>4.9683318194458899E-3</v>
+      </c>
+      <c r="H33" s="7">
+        <v>2.91673016868543E-3</v>
+      </c>
+      <c r="I33" s="7">
+        <v>2.6916443756781401E-3</v>
+      </c>
+      <c r="J33" s="16">
+        <v>2.79561925064952E-4</v>
+      </c>
+      <c r="K33" s="8">
+        <v>5.13438255182108E-3</v>
+      </c>
+      <c r="L33">
+        <f>AVERAGE(G56:G61)</f>
+        <v>0.32665217978237537</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ref="M33:O33" si="2">AVERAGE(H56:H61)</f>
+        <v>0.30390052081767083</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="2"/>
-        <v>3.6995966102512101E-3</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="3"/>
-        <v>3.7530782573444998E-3</v>
+        <v>0.27740629840620884</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="2"/>
+        <v>0.17373203868308387</v>
       </c>
     </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="1"/>
-        <v>4.9683318194458899E-3</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="2"/>
-        <v>2.9133059044179599E-3</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="3"/>
-        <v>2.6380720646447201E-3</v>
+    <row r="34" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q34">
+        <f>L33/O33</f>
+        <v>1.8802069109327801</v>
       </c>
     </row>
-    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F35" t="str">
+    <row r="35" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F35" s="1" t="str">
         <f>E12</f>
         <v>#Super Queries</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="J35" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="27" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F36">
+    <row r="36" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F36" s="3">
         <f>E14</f>
         <v>2</v>
       </c>
-      <c r="G36">
-        <f>G14</f>
+      <c r="G36" s="4">
         <v>3.52229041004457E-2</v>
       </c>
-      <c r="H36">
-        <f>J14</f>
+      <c r="H36" s="4">
         <v>3.52229041004457E-2</v>
       </c>
-      <c r="I36">
-        <f>M14</f>
-        <v>3.0898741423802101E-2</v>
+      <c r="I36" s="4">
+        <v>4.9898741423802101E-2</v>
+      </c>
+      <c r="J36" s="5">
+        <v>6.3799784761000899E-2</v>
+      </c>
+      <c r="K36" s="5">
+        <v>3.9724634560576802E-2</v>
       </c>
     </row>
-    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F37">
-        <f t="shared" ref="F37:F40" si="4">E15</f>
+    <row r="37" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F37" s="3">
+        <f t="shared" ref="F37:F40" si="3">E15</f>
         <v>4</v>
       </c>
-      <c r="G37">
-        <f t="shared" ref="G37:G41" si="5">G15</f>
+      <c r="G37" s="4">
         <v>1.4334315513423601E-2</v>
       </c>
-      <c r="H37">
-        <f t="shared" ref="H37:H41" si="6">J15</f>
+      <c r="H37" s="4">
         <v>3.19483234854467E-3</v>
       </c>
-      <c r="I37">
-        <f t="shared" ref="I37:I41" si="7">M15</f>
+      <c r="I37" s="4">
         <v>3.19483234854467E-3</v>
       </c>
+      <c r="J37" s="5">
+        <v>4.1026282176035198E-2</v>
+      </c>
+      <c r="K37" s="5">
+        <v>1.4822507750314301E-2</v>
+      </c>
     </row>
-    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F38">
-        <f t="shared" si="4"/>
+    <row r="38" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F38" s="3">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="5"/>
+      <c r="G38" s="4">
         <v>1.31577767634493E-2</v>
       </c>
-      <c r="H38">
-        <f t="shared" si="6"/>
+      <c r="H38" s="4">
         <v>4.28823303488279E-3</v>
       </c>
-      <c r="I38">
-        <f t="shared" si="7"/>
+      <c r="I38" s="4">
         <v>4.28823303488279E-3</v>
       </c>
+      <c r="J38" s="5">
+        <v>2.2305567351882601E-2</v>
+      </c>
+      <c r="K38" s="5">
+        <v>1.3405508415004E-2</v>
+      </c>
     </row>
-    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F39">
-        <f t="shared" si="4"/>
+    <row r="39" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F39" s="3">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="5"/>
+      <c r="G39" s="4">
         <v>9.6452343831792096E-3</v>
       </c>
-      <c r="H39">
-        <f t="shared" si="6"/>
-        <v>2.7349311309348102E-3</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="7"/>
-        <v>2.6827429028471999E-3</v>
+      <c r="H39" s="4">
+        <v>2.7245797972341701E-3</v>
+      </c>
+      <c r="I39" s="4">
+        <v>2.6670246918019101E-3</v>
+      </c>
+      <c r="J39" s="5">
+        <v>6.5478864994579196E-3</v>
+      </c>
+      <c r="K39" s="5">
+        <v>9.54223507948182E-3</v>
       </c>
     </row>
-    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F40">
-        <f t="shared" si="4"/>
+    <row r="40" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F40" s="3">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="5"/>
+      <c r="G40" s="4">
         <v>6.9639150126433701E-3</v>
       </c>
-      <c r="H40">
-        <f t="shared" si="6"/>
+      <c r="H40" s="4">
         <v>2.1363134867243799E-3</v>
       </c>
-      <c r="I40">
-        <f t="shared" si="7"/>
-        <v>2.05992038269861E-3</v>
+      <c r="I40" s="4">
+        <v>2.1363134867243799E-3</v>
+      </c>
+      <c r="J40" s="5">
+        <v>2.99946797370032E-3</v>
+      </c>
+      <c r="K40" s="5">
+        <v>6.8905581386576797E-3</v>
       </c>
     </row>
-    <row r="41" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F41">
+    <row r="41" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="6">
         <f>E19</f>
         <v>15</v>
       </c>
-      <c r="G41">
-        <f t="shared" si="5"/>
+      <c r="G41" s="7">
         <v>5.5056571228811997E-3</v>
       </c>
-      <c r="H41">
-        <f t="shared" si="6"/>
+      <c r="H41" s="7">
         <v>1.8334711030340001E-3</v>
       </c>
-      <c r="I41">
-        <f t="shared" si="7"/>
+      <c r="I41" s="7">
         <v>1.8334711030340001E-3</v>
       </c>
+      <c r="J41" s="16">
+        <v>1.93827300695204E-3</v>
+      </c>
+      <c r="K41" s="8">
+        <v>5.4720625511192004E-3</v>
+      </c>
     </row>
-    <row r="43" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F43">
-        <f>3600/F47</f>
+        <f>3600/F65</f>
         <v>5695</v>
       </c>
       <c r="G43">
-        <f t="shared" ref="G43:I43" si="8">3600/G47</f>
+        <f t="shared" ref="G43:I43" si="4">3600/G65</f>
         <v>2003</v>
       </c>
       <c r="H43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>3797</v>
       </c>
       <c r="I43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>3678</v>
       </c>
     </row>
-    <row r="45" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F45" t="s">
+    <row r="44" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F44" s="1"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="12"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+    </row>
+    <row r="45" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F45" s="3"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F47" s="3">
+        <v>15</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0.309465173734149</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0.262174775817127</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0.24664609754119399</v>
+      </c>
+      <c r="J47" s="15">
+        <v>5.5380529323011997E-2</v>
+      </c>
+      <c r="K47" s="5">
+        <v>0.33348159103366298</v>
+      </c>
+    </row>
+    <row r="48" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F48" s="3">
+        <v>25</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0.27977402271997898</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0.24719308138958401</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0.22151424659107</v>
+      </c>
+      <c r="J48" s="5">
+        <v>7.3967095171081104E-2</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0.29694786481843399</v>
+      </c>
+    </row>
+    <row r="49" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F49" s="3">
+        <v>50</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0.243960138566896</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0.20761485170226801</v>
+      </c>
+      <c r="I49" s="4">
+        <v>0.19231665221215999</v>
+      </c>
+      <c r="J49" s="5">
+        <v>8.0218801958504796E-2</v>
+      </c>
+      <c r="K49" s="5">
+        <v>0.249224139112034</v>
+      </c>
+    </row>
+    <row r="50" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F50" s="3">
+        <v>75</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0.22131900170556301</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0.18770738943512999</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0.17580387638547701</v>
+      </c>
+      <c r="J50" s="15">
+        <v>9.3995127761845099E-2</v>
+      </c>
+      <c r="K50" s="5">
+        <v>0.22486732884987801</v>
+      </c>
+    </row>
+    <row r="51" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F51" s="3">
+        <v>100</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0.20626152701449599</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0.175225277703628</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0.17135087665391799</v>
+      </c>
+      <c r="J51" s="15">
+        <v>0.106971896639363</v>
+      </c>
+      <c r="K51" s="5">
+        <v>0.207818466029801</v>
+      </c>
+    </row>
+    <row r="52" spans="6:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F52" s="6">
+        <v>125</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0.19440753418047499</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0.174622538458618</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0.167085891915911</v>
+      </c>
+      <c r="J52" s="16">
+        <v>0.109640936767445</v>
+      </c>
+      <c r="K52" s="8">
+        <v>0.195621274424957</v>
+      </c>
+    </row>
+    <row r="53" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F53" s="1"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="12"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+    </row>
+    <row r="54" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F54" s="3"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+    </row>
+    <row r="55" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F56" s="3">
+        <v>2</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0.29641344867920899</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0.29641344867920899</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0.13618352822852001</v>
+      </c>
+      <c r="J56" s="4">
+        <v>2.8569970957032201E-3</v>
+      </c>
+      <c r="K56" s="5">
+        <v>0.45997653240821801</v>
+      </c>
+    </row>
+    <row r="57" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F57" s="3">
+        <v>4</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0.35234132226750198</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0.31782733262381702</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0.31782733262381702</v>
+      </c>
+      <c r="J57" s="5">
+        <v>0.106099599950435</v>
+      </c>
+      <c r="K57" s="5">
+        <v>0.358936900129949</v>
+      </c>
+    </row>
+    <row r="58" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F58" s="3">
+        <v>6</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0.34212196627227198</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0.31090286904606101</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0.31090286904606101</v>
+      </c>
+      <c r="J58" s="5">
+        <v>0.183339983690509</v>
+      </c>
+      <c r="K58" s="5">
+        <v>0.34617194616587499</v>
+      </c>
+    </row>
+    <row r="59" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F59" s="3">
+        <v>9</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0.33079821823171401</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0.303554788889694</v>
+      </c>
+      <c r="I59" s="4">
+        <v>0.30481937487161098</v>
+      </c>
+      <c r="J59" s="15">
+        <v>0.23845013542764101</v>
+      </c>
+      <c r="K59" s="5">
+        <v>0.33257397105638598</v>
+      </c>
+    </row>
+    <row r="60" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F60" s="3">
+        <v>12</v>
+      </c>
+      <c r="G60" s="4">
+        <v>0.321723791094226</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0.30218646143348599</v>
+      </c>
+      <c r="I60" s="4">
+        <v>0.30218646143348599</v>
+      </c>
+      <c r="J60" s="15">
+        <v>0.24995468979448701</v>
+      </c>
+      <c r="K60" s="5">
+        <v>0.32299758748266799</v>
+      </c>
+    </row>
+    <row r="61" spans="6:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F61" s="6">
+        <v>15</v>
+      </c>
+      <c r="G61" s="7">
+        <v>0.316514332149329</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0.29251822423375801</v>
+      </c>
+      <c r="I61" s="7">
+        <v>0.29251822423375801</v>
+      </c>
+      <c r="J61" s="16">
+        <v>0.26169082613972799</v>
+      </c>
+      <c r="K61" s="8">
+        <v>0.31715505426882701</v>
+      </c>
+    </row>
+    <row r="63" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F46" t="s">
+    <row r="64" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G64" t="s">
         <v>12</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H64" t="s">
         <v>13</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I64" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F47">
+    <row r="65" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F65">
         <v>0.6321334503950834</v>
       </c>
-      <c r="G47">
+      <c r="G65">
         <v>1.7973040439340988</v>
       </c>
-      <c r="H47">
+      <c r="H65">
         <v>0.94811693442191203</v>
       </c>
-      <c r="I47">
+      <c r="I65">
         <v>0.97879282218597063</v>
       </c>
     </row>
-    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F51" t="s">
+    <row r="69" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
         <v>15</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G69" t="s">
         <v>16</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H69" t="s">
         <v>18</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I69" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E52" t="s">
+    <row r="70" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
         <v>11</v>
       </c>
-      <c r="F52">
+      <c r="F70">
         <v>1192</v>
       </c>
-      <c r="G52">
+      <c r="G70">
         <v>5</v>
       </c>
-      <c r="H52">
+      <c r="H70">
         <v>5</v>
       </c>
-      <c r="I52">
+      <c r="I70">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E53" t="s">
+    <row r="71" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
         <v>12</v>
       </c>
-      <c r="F53">
+      <c r="F71">
         <v>1192</v>
       </c>
-      <c r="G53">
+      <c r="G71">
         <v>5</v>
       </c>
-      <c r="H53">
+      <c r="H71">
         <v>5</v>
       </c>
-      <c r="I53">
+      <c r="I71">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E54" t="s">
+    <row r="72" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
         <v>13</v>
       </c>
-      <c r="F54">
+      <c r="F72">
         <v>1192</v>
       </c>
-      <c r="G54">
+      <c r="G72">
         <v>0</v>
       </c>
-      <c r="H54">
+      <c r="H72">
         <v>0</v>
       </c>
-      <c r="I54">
+      <c r="I72">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E55" t="s">
+    <row r="73" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
         <v>14</v>
       </c>
-      <c r="F55">
+      <c r="F73">
         <v>1192</v>
       </c>
-      <c r="G55">
+      <c r="G73">
         <v>1192</v>
       </c>
-      <c r="H55">
+      <c r="H73">
         <v>1192</v>
       </c>
-      <c r="I55">
+      <c r="I73">
         <v>0</v>
       </c>
     </row>

--- a/SQCFramework-Evaluation-Results.xlsx
+++ b/SQCFramework-Evaluation-Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="30">
   <si>
     <t>#Super Queries</t>
   </si>
@@ -100,6 +100,21 @@
   <si>
     <t>Dbpedia Similarity Errors</t>
   </si>
+  <si>
+    <t>FSBL-Ex</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Avg Similarity Errors</t>
+  </si>
+  <si>
+    <t>Avg Diversity scores</t>
+  </si>
 </sst>
 </file>
 
@@ -128,7 +143,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +165,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -266,6 +293,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -290,9 +332,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,11 +872,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="125545280"/>
-        <c:axId val="125545840"/>
+        <c:axId val="89874576"/>
+        <c:axId val="215228608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125545280"/>
+        <c:axId val="89874576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -952,7 +991,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125545840"/>
+        <c:crossAx val="215228608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -960,7 +999,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125545840"/>
+        <c:axId val="215228608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1051,7 +1090,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125545280"/>
+        <c:crossAx val="89874576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1129,10 +1168,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14913801399825022"/>
-          <c:y val="1.8948146945549329E-2"/>
-          <c:w val="0.82729396325459303"/>
-          <c:h val="0.14776740536298941"/>
+          <c:x val="0.14080468066491686"/>
+          <c:y val="3.2693851412903284E-2"/>
+          <c:w val="0.83562729658792656"/>
+          <c:h val="0.10653029196092755"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1234,7 +1273,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$64</c:f>
+              <c:f>Sheet1!$F$66</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1255,7 +1294,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$65</c:f>
+              <c:f>Sheet1!$F$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1271,7 +1310,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$64</c:f>
+              <c:f>Sheet1!$G$66</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1292,7 +1331,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$65</c:f>
+              <c:f>Sheet1!$G$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1308,7 +1347,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$64</c:f>
+              <c:f>Sheet1!$H$66</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1329,7 +1368,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$65</c:f>
+              <c:f>Sheet1!$H$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1345,7 +1384,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$64</c:f>
+              <c:f>Sheet1!$I$66</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1366,7 +1405,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$65</c:f>
+              <c:f>Sheet1!$I$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1387,11 +1426,11 @@
         </c:dLbls>
         <c:gapWidth val="267"/>
         <c:overlap val="-43"/>
-        <c:axId val="125550320"/>
-        <c:axId val="125550880"/>
+        <c:axId val="215233088"/>
+        <c:axId val="215233648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="125550320"/>
+        <c:axId val="215233088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1415,7 +1454,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125550880"/>
+        <c:crossAx val="215233648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1423,7 +1462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125550880"/>
+        <c:axId val="215233648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1532,7 +1571,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125550320"/>
+        <c:crossAx val="215233088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1704,7 +1743,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$47:$F$52</c:f>
+              <c:f>Sheet1!$F$48:$F$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1731,7 +1770,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$47:$G$52</c:f>
+              <c:f>Sheet1!$G$48:$G$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1803,7 +1842,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$47:$F$52</c:f>
+              <c:f>Sheet1!$F$48:$F$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1830,7 +1869,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$47:$H$52</c:f>
+              <c:f>Sheet1!$H$48:$H$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1902,7 +1941,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$47:$F$52</c:f>
+              <c:f>Sheet1!$F$48:$F$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1929,7 +1968,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$47:$I$52</c:f>
+              <c:f>Sheet1!$I$48:$I$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1995,7 +2034,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$47:$F$52</c:f>
+              <c:f>Sheet1!$F$48:$F$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2022,7 +2061,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$47:$J$52</c:f>
+              <c:f>Sheet1!$J$48:$J$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2088,7 +2127,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$47:$F$52</c:f>
+              <c:f>Sheet1!$F$48:$F$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2115,7 +2154,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$47:$K$52</c:f>
+              <c:f>Sheet1!$K$48:$K$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2152,11 +2191,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="190373696"/>
-        <c:axId val="190374256"/>
+        <c:axId val="215755696"/>
+        <c:axId val="215756256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190373696"/>
+        <c:axId val="215755696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2271,7 +2310,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190374256"/>
+        <c:crossAx val="215756256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2279,7 +2318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190374256"/>
+        <c:axId val="215756256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2383,7 +2422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190373696"/>
+        <c:crossAx val="215755696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2461,10 +2500,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17969356955380578"/>
+          <c:x val="0.13802690288713912"/>
           <c:y val="1.8662597971101362E-2"/>
-          <c:w val="0.82030643044619422"/>
-          <c:h val="0.14879001716480938"/>
+          <c:w val="0.84808420822397201"/>
+          <c:h val="0.10726752581532843"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2605,7 +2644,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$56:$F$61</c:f>
+              <c:f>Sheet1!$F$58:$F$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2632,7 +2671,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$56:$G$61</c:f>
+              <c:f>Sheet1!$G$58:$G$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2704,7 +2743,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$56:$F$61</c:f>
+              <c:f>Sheet1!$F$58:$F$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2731,7 +2770,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$56:$H$61</c:f>
+              <c:f>Sheet1!$H$58:$H$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2803,7 +2842,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$56:$F$61</c:f>
+              <c:f>Sheet1!$F$58:$F$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2830,7 +2869,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$56:$I$61</c:f>
+              <c:f>Sheet1!$I$58:$I$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2896,7 +2935,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$56:$F$61</c:f>
+              <c:f>Sheet1!$F$58:$F$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2923,7 +2962,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$56:$J$61</c:f>
+              <c:f>Sheet1!$J$58:$J$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2989,7 +3028,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$56:$F$61</c:f>
+              <c:f>Sheet1!$F$58:$F$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3016,7 +3055,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$56:$K$61</c:f>
+              <c:f>Sheet1!$K$58:$K$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3053,11 +3092,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="190378736"/>
-        <c:axId val="190379296"/>
+        <c:axId val="215867344"/>
+        <c:axId val="215867904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190378736"/>
+        <c:axId val="215867344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3172,7 +3211,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190379296"/>
+        <c:crossAx val="215867904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3180,7 +3219,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190379296"/>
+        <c:axId val="215867904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3284,7 +3323,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190378736"/>
+        <c:crossAx val="215867344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3362,10 +3401,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17969353246048922"/>
+          <c:x val="0.14590535832143789"/>
           <c:y val="2.3276208121043692E-2"/>
-          <c:w val="0.77407622292827427"/>
-          <c:h val="0.14879001716480938"/>
+          <c:w val="0.80786439706732571"/>
+          <c:h val="0.11649474611521309"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3506,7 +3545,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$36:$F$41</c:f>
+              <c:f>Sheet1!$F$37:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3533,7 +3572,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$36:$G$41</c:f>
+              <c:f>Sheet1!$G$37:$G$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3605,7 +3644,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$36:$F$41</c:f>
+              <c:f>Sheet1!$F$37:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3632,7 +3671,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$36:$H$41</c:f>
+              <c:f>Sheet1!$H$37:$H$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3704,7 +3743,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$36:$F$41</c:f>
+              <c:f>Sheet1!$F$37:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3731,12 +3770,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$36:$I$41</c:f>
+              <c:f>Sheet1!$I$37:$I$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.9898741423802101E-2</c:v>
+                  <c:v>3.7898741423802097E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.19483234854467E-3</c:v>
@@ -3797,7 +3836,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$36:$F$41</c:f>
+              <c:f>Sheet1!$F$37:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3824,7 +3863,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$36:$J$41</c:f>
+              <c:f>Sheet1!$J$37:$J$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3890,7 +3929,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$36:$F$41</c:f>
+              <c:f>Sheet1!$F$37:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3917,7 +3956,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$36:$K$41</c:f>
+              <c:f>Sheet1!$K$37:$K$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3954,11 +3993,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="190903952"/>
-        <c:axId val="190904512"/>
+        <c:axId val="215872944"/>
+        <c:axId val="215873504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190903952"/>
+        <c:axId val="215872944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4073,7 +4112,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190904512"/>
+        <c:crossAx val="215873504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4081,7 +4120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190904512"/>
+        <c:axId val="215873504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4172,7 +4211,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190903952"/>
+        <c:crossAx val="215872944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4250,10 +4289,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17136027587194874"/>
+          <c:x val="0.12977483077773172"/>
           <c:y val="1.8948146945549329E-2"/>
-          <c:w val="0.77407622292827427"/>
-          <c:h val="0.14776740536298941"/>
+          <c:w val="0.8156616680224914"/>
+          <c:h val="0.11569409493916351"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7156,16 +7195,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1109662</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7186,16 +7225,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7216,16 +7255,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>588169</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>50007</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>973931</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7248,16 +7287,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7280,16 +7319,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>183357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>176213</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7576,10 +7615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:AD73"/>
+  <dimension ref="E1:AL75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7594,64 +7633,87 @@
     <col min="12" max="12" width="18.140625" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" customWidth="1"/>
+    <col min="17" max="17" width="23.5703125" customWidth="1"/>
     <col min="18" max="18" width="14.140625" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" customWidth="1"/>
+    <col min="34" max="34" width="14.5703125" customWidth="1"/>
+    <col min="36" max="36" width="14.7109375" customWidth="1"/>
+    <col min="38" max="38" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="5:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19" t="s">
+      <c r="G2" s="30"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="21" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
       <c r="Q2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="18"/>
-      <c r="T2" s="19" t="s">
+      <c r="S2" s="25"/>
+      <c r="T2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="20"/>
-      <c r="V2" s="21" t="s">
+      <c r="U2" s="27"/>
+      <c r="V2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="17" t="s">
+      <c r="W2" s="29"/>
+      <c r="X2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="19" t="s">
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="21" t="s">
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" s="22"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL2" s="23"/>
     </row>
-    <row r="3" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -7699,29 +7761,53 @@
       <c r="W3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="X3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AC3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AD3" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="AE3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E4" s="3">
         <v>15</v>
       </c>
@@ -7774,28 +7860,52 @@
         <v>5</v>
       </c>
       <c r="X4" s="11">
+        <v>408</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="11">
+        <v>1877</v>
+      </c>
+      <c r="AA4" s="5">
         <v>2</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="AB4" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="3">
         <v>9</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>9</v>
-      </c>
-      <c r="AB4" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="4">
-        <v>34</v>
       </c>
       <c r="AD4" s="5">
         <v>1</v>
       </c>
+      <c r="AE4" s="3">
+        <v>9</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>34</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="11">
+        <v>4</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="11">
+        <v>36</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E5" s="3">
         <v>25</v>
       </c>
@@ -7848,28 +7958,52 @@
         <v>6</v>
       </c>
       <c r="X5" s="11">
+        <v>179</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>2721</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="11">
         <v>4</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="AC5" s="3">
         <v>40</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>55</v>
-      </c>
-      <c r="AB5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="4">
-        <v>55</v>
       </c>
       <c r="AD5" s="5">
         <v>1</v>
       </c>
+      <c r="AE5" s="3">
+        <v>55</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>55</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="11">
+        <v>38</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="11">
+        <v>38</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E6" s="3">
         <v>50</v>
       </c>
@@ -7922,28 +8056,52 @@
         <v>7</v>
       </c>
       <c r="X6" s="11">
+        <v>400</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>4530</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="11">
         <v>6</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="AC6" s="3">
         <v>74</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="AD6" s="5">
         <v>2</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AE6" s="3">
         <v>64</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AF6" s="5">
         <v>1</v>
       </c>
-      <c r="AC6" s="4">
+      <c r="AG6" s="4">
         <v>64</v>
       </c>
-      <c r="AD6" s="5">
+      <c r="AH6" s="5">
         <v>1</v>
       </c>
+      <c r="AI6" s="11">
+        <v>11</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="11">
+        <v>72</v>
+      </c>
+      <c r="AL6" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E7" s="3">
         <v>75</v>
       </c>
@@ -7996,28 +8154,52 @@
         <v>7</v>
       </c>
       <c r="X7" s="11">
+        <v>496</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>4697</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="11">
         <v>9</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="AC7" s="3">
         <v>126</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="AD7" s="5">
         <v>2</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AE7" s="3">
         <v>105</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AF7" s="5">
         <v>1</v>
       </c>
-      <c r="AC7" s="4">
+      <c r="AG7" s="4">
         <v>102</v>
       </c>
-      <c r="AD7" s="5">
+      <c r="AH7" s="5">
         <v>1</v>
       </c>
+      <c r="AI7" s="11">
+        <v>117</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="11">
+        <v>123</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E8" s="3">
         <v>100</v>
       </c>
@@ -8070,28 +8252,52 @@
         <v>7</v>
       </c>
       <c r="X8" s="11">
+        <v>1304</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>4978</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="11">
         <v>12</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AC8" s="3">
         <v>163</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="AD8" s="5">
         <v>2</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AE8" s="3">
         <v>140</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AF8" s="5">
         <v>1</v>
       </c>
-      <c r="AC8" s="4">
+      <c r="AG8" s="4">
         <v>111</v>
       </c>
-      <c r="AD8" s="5">
+      <c r="AH8" s="5">
         <v>1</v>
       </c>
+      <c r="AI8" s="11">
+        <v>151</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="11">
+        <v>160</v>
+      </c>
+      <c r="AL8" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="5:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="6">
         <v>125</v>
       </c>
@@ -8144,28 +8350,52 @@
         <v>7</v>
       </c>
       <c r="X9" s="7">
+        <v>1522</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>5153</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="7">
         <v>15</v>
       </c>
-      <c r="Y9" s="6">
+      <c r="AC9" s="6">
         <v>197</v>
       </c>
-      <c r="Z9" s="8">
+      <c r="AD9" s="8">
         <v>2</v>
       </c>
-      <c r="AA9" s="6">
+      <c r="AE9" s="6">
         <v>146</v>
       </c>
-      <c r="AB9" s="8">
+      <c r="AF9" s="8">
         <v>1</v>
       </c>
-      <c r="AC9" s="7">
+      <c r="AG9" s="7">
         <v>146</v>
       </c>
-      <c r="AD9" s="8">
+      <c r="AH9" s="8">
         <v>1</v>
       </c>
+      <c r="AI9" s="7">
+        <v>180</v>
+      </c>
+      <c r="AJ9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="7">
+        <v>195</v>
+      </c>
+      <c r="AL9" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -8184,8 +8414,16 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
     </row>
-    <row r="11" spans="5:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -8206,26 +8444,34 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
     </row>
-    <row r="12" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19" t="s">
+      <c r="G12" s="30"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="24"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="21" t="s">
+      <c r="J12" s="31"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="21"/>
-      <c r="N12" s="22"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="29"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
@@ -8234,8 +8480,16 @@
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
     </row>
-    <row r="13" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
         <v>1</v>
@@ -8272,8 +8526,16 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
     </row>
-    <row r="14" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E14" s="3">
         <v>2</v>
       </c>
@@ -8312,8 +8574,16 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
     </row>
-    <row r="15" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E15" s="3">
         <v>4</v>
       </c>
@@ -8352,8 +8622,16 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
     </row>
-    <row r="16" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E16" s="3">
         <v>6</v>
       </c>
@@ -8392,8 +8670,16 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
     </row>
-    <row r="17" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E17" s="3">
         <v>9</v>
       </c>
@@ -8432,8 +8718,16 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
     </row>
-    <row r="18" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E18" s="3">
         <v>12</v>
       </c>
@@ -8472,8 +8766,16 @@
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
     </row>
-    <row r="19" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="6">
         <v>15</v>
       </c>
@@ -8512,8 +8814,16 @@
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
     </row>
-    <row r="20" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -8532,8 +8842,16 @@
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
     </row>
-    <row r="21" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4">
@@ -8561,14 +8879,22 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
     </row>
-    <row r="22" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:38" x14ac:dyDescent="0.25">
       <c r="G22" t="e">
         <f>ave</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="23" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:38" x14ac:dyDescent="0.25">
       <c r="G23">
         <f>AVERAGE(G14:G19,G4:G9)</f>
         <v>1.4826834343102495E-2</v>
@@ -8582,7 +8908,7 @@
         <v>7.3830731474401898E-3</v>
       </c>
     </row>
-    <row r="24" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:38" x14ac:dyDescent="0.25">
       <c r="J24">
         <f>1-J23/G23</f>
         <v>0.39274373160442533</v>
@@ -8592,12 +8918,15 @@
         <v>0.17999456786107892</v>
       </c>
     </row>
-    <row r="26" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H26" s="25" t="s">
+    <row r="26" spans="5:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="17" t="s">
         <v>23</v>
       </c>
+      <c r="O26" s="17" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="27" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:38" x14ac:dyDescent="0.25">
       <c r="F27" s="1" t="str">
         <f>E2</f>
         <v>#Super Queries</v>
@@ -8614,11 +8943,27 @@
       <c r="J27" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="27" t="s">
+      <c r="K27" s="19" t="s">
         <v>22</v>
       </c>
+      <c r="M27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R27" s="19"/>
     </row>
-    <row r="28" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F28" s="3">
         <f>E4</f>
         <v>15</v>
@@ -8638,24 +8983,28 @@
       <c r="K28" s="5">
         <v>4.0660418694891599E-2</v>
       </c>
-      <c r="L28">
-        <f>AVERAGE(G47:G52)</f>
-        <v>0.24253123298692633</v>
-      </c>
-      <c r="M28">
-        <f t="shared" ref="M28:O28" si="0">AVERAGE(H47:H52)</f>
-        <v>0.20908965241772584</v>
-      </c>
-      <c r="N28">
+      <c r="M28" s="6">
+        <f>AVERAGE(G34,G43)</f>
+        <v>1.4826834343102493E-2</v>
+      </c>
+      <c r="N28" s="7">
+        <f t="shared" ref="N28:Q28" si="0">AVERAGE(H34,H43)</f>
+        <v>8.9462909088225268E-3</v>
+      </c>
+      <c r="O28" s="7">
         <f t="shared" si="0"/>
-        <v>0.19578627354995501</v>
-      </c>
-      <c r="O28">
+        <v>8.8141786992400207E-3</v>
+      </c>
+      <c r="P28" s="7">
         <f t="shared" si="0"/>
-        <v>8.6695731270208506E-2</v>
+        <v>1.2259891793966504E-2</v>
+      </c>
+      <c r="Q28" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6172859819342647E-2</v>
       </c>
     </row>
-    <row r="29" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:38" x14ac:dyDescent="0.25">
       <c r="F29" s="3">
         <f t="shared" ref="F29:F33" si="1">E5</f>
         <v>25</v>
@@ -8675,8 +9024,24 @@
       <c r="K29" s="5">
         <v>2.7186564587719599E-2</v>
       </c>
+      <c r="M29">
+        <f>M28/Q28</f>
+        <v>0.91677257508716459</v>
+      </c>
+      <c r="N29">
+        <f>N28/P28</f>
+        <v>0.72972021769599071</v>
+      </c>
+      <c r="O29">
+        <f>O28/N28</f>
+        <v>0.98523273936327938</v>
+      </c>
+      <c r="P29">
+        <f>P28/M28</f>
+        <v>0.82687183995347313</v>
+      </c>
     </row>
-    <row r="30" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:38" x14ac:dyDescent="0.25">
       <c r="F30" s="3">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -8696,12 +9061,8 @@
       <c r="K30" s="5">
         <v>1.5062464057675799E-2</v>
       </c>
-      <c r="O30">
-        <f>O28/L28</f>
-        <v>0.35746213055735321</v>
-      </c>
     </row>
-    <row r="31" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:38" x14ac:dyDescent="0.25">
       <c r="F31" s="3">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -8722,7 +9083,7 @@
         <v>9.4420105478130092E-3</v>
       </c>
     </row>
-    <row r="32" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:38" x14ac:dyDescent="0.25">
       <c r="F32" s="3">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -8741,10 +9102,6 @@
       </c>
       <c r="K32" s="5">
         <v>6.7309708970368903E-3</v>
-      </c>
-      <c r="O32">
-        <f>L28/O28</f>
-        <v>2.797499132120107</v>
       </c>
     </row>
     <row r="33" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8767,633 +9124,764 @@
       <c r="K33" s="8">
         <v>5.13438255182108E-3</v>
       </c>
-      <c r="L33">
-        <f>AVERAGE(G56:G61)</f>
-        <v>0.32665217978237537</v>
-      </c>
-      <c r="M33">
-        <f t="shared" ref="M33:O33" si="2">AVERAGE(H56:H61)</f>
-        <v>0.30390052081767083</v>
-      </c>
-      <c r="N33">
+      <c r="O33" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="4">
+        <f>AVERAGE(G28:G33)</f>
+        <v>1.5515368203534588E-2</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" ref="H34:K34" si="2">AVERAGE(H28:H33)</f>
+        <v>9.6591928391674374E-3</v>
+      </c>
+      <c r="I34" s="4">
         <f t="shared" si="2"/>
-        <v>0.27740629840620884</v>
-      </c>
-      <c r="O33">
+        <v>8.9585880503484008E-3</v>
+      </c>
+      <c r="J34" s="4">
         <f t="shared" si="2"/>
-        <v>0.17373203868308387</v>
+        <v>1.4169066264281803E-3</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7369468556159662E-2</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="O34" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q34" s="19" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="34" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H34" s="25" t="s">
+    <row r="35" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="Q34">
-        <f>L33/O33</f>
-        <v>1.8802069109327801</v>
+      <c r="M35" s="6">
+        <f>AVERAGE(G43,G54)</f>
+        <v>0.12833476673479838</v>
+      </c>
+      <c r="N35" s="7">
+        <f t="shared" ref="N35:Q35" si="3">AVERAGE(H43,H54)</f>
+        <v>0.10866152069810173</v>
+      </c>
+      <c r="O35" s="7">
+        <f t="shared" si="3"/>
+        <v>0.10222802144904332</v>
+      </c>
+      <c r="P35" s="7">
+        <f t="shared" si="3"/>
+        <v>5.4899304115856667E-2</v>
+      </c>
+      <c r="Q35" s="8">
+        <f>AVERAGE(K43,K54)</f>
+        <v>0.13315151423032676</v>
       </c>
     </row>
-    <row r="35" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F35" s="1" t="str">
+    <row r="36" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F36" s="1" t="str">
         <f>E12</f>
         <v>#Super Queries</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G36" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="H36" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="I36" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J35" s="14" t="s">
+      <c r="J36" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K35" s="27" t="s">
+      <c r="K36" s="19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F36" s="3">
-        <f>E14</f>
-        <v>2</v>
-      </c>
-      <c r="G36" s="4">
-        <v>3.52229041004457E-2</v>
-      </c>
-      <c r="H36" s="4">
-        <v>3.52229041004457E-2</v>
-      </c>
-      <c r="I36" s="4">
-        <v>4.9898741423802101E-2</v>
-      </c>
-      <c r="J36" s="5">
-        <v>6.3799784761000899E-2</v>
-      </c>
-      <c r="K36" s="5">
-        <v>3.9724634560576802E-2</v>
+      <c r="M36">
+        <f>O35/M35</f>
+        <v>0.79657308810398819</v>
+      </c>
+      <c r="N36">
+        <f>O35/N35</f>
+        <v>0.94079321541125094</v>
+      </c>
+      <c r="O36">
+        <f>P35/O35</f>
+        <v>0.53702794339242721</v>
+      </c>
+      <c r="Q36">
+        <f>M35/Q35</f>
+        <v>0.96382506407552881</v>
       </c>
     </row>
     <row r="37" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F37" s="3">
-        <f t="shared" ref="F37:F40" si="3">E15</f>
+        <f>E14</f>
+        <v>2</v>
+      </c>
+      <c r="G37" s="4">
+        <v>3.52229041004457E-2</v>
+      </c>
+      <c r="H37" s="4">
+        <v>3.52229041004457E-2</v>
+      </c>
+      <c r="I37" s="4">
+        <v>3.7898741423802097E-2</v>
+      </c>
+      <c r="J37" s="5">
+        <v>6.3799784761000899E-2</v>
+      </c>
+      <c r="K37" s="5">
+        <v>3.9724634560576802E-2</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37">
         <v>4</v>
       </c>
-      <c r="G37" s="4">
-        <v>1.4334315513423601E-2</v>
-      </c>
-      <c r="H37" s="4">
-        <v>3.19483234854467E-3</v>
-      </c>
-      <c r="I37" s="4">
-        <v>3.19483234854467E-3</v>
-      </c>
-      <c r="J37" s="5">
-        <v>4.1026282176035198E-2</v>
-      </c>
-      <c r="K37" s="5">
-        <v>1.4822507750314301E-2</v>
+      <c r="P37">
+        <v>5</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F38" s="3">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f>E15</f>
+        <v>4</v>
       </c>
       <c r="G38" s="4">
-        <v>1.31577767634493E-2</v>
+        <v>1.4334315513423601E-2</v>
       </c>
       <c r="H38" s="4">
-        <v>4.28823303488279E-3</v>
+        <v>3.19483234854467E-3</v>
       </c>
       <c r="I38" s="4">
-        <v>4.28823303488279E-3</v>
+        <v>3.19483234854467E-3</v>
       </c>
       <c r="J38" s="5">
-        <v>2.2305567351882601E-2</v>
+        <v>4.1026282176035198E-2</v>
       </c>
       <c r="K38" s="5">
-        <v>1.3405508415004E-2</v>
+        <v>1.4822507750314301E-2</v>
       </c>
     </row>
     <row r="39" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F39" s="3">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f>E16</f>
+        <v>6</v>
       </c>
       <c r="G39" s="4">
-        <v>9.6452343831792096E-3</v>
+        <v>1.31577767634493E-2</v>
       </c>
       <c r="H39" s="4">
-        <v>2.7245797972341701E-3</v>
+        <v>4.28823303488279E-3</v>
       </c>
       <c r="I39" s="4">
-        <v>2.6670246918019101E-3</v>
+        <v>4.28823303488279E-3</v>
       </c>
       <c r="J39" s="5">
-        <v>6.5478864994579196E-3</v>
+        <v>2.2305567351882601E-2</v>
       </c>
       <c r="K39" s="5">
-        <v>9.54223507948182E-3</v>
+        <v>1.3405508415004E-2</v>
       </c>
     </row>
     <row r="40" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F40" s="3">
-        <f t="shared" si="3"/>
+        <f>E17</f>
+        <v>9</v>
+      </c>
+      <c r="G40" s="4">
+        <v>9.6452343831792096E-3</v>
+      </c>
+      <c r="H40" s="4">
+        <v>2.7245797972341701E-3</v>
+      </c>
+      <c r="I40" s="4">
+        <v>2.6670246918019101E-3</v>
+      </c>
+      <c r="J40" s="5">
+        <v>6.5478864994579196E-3</v>
+      </c>
+      <c r="K40" s="5">
+        <v>9.54223507948182E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F41" s="3">
+        <f>E18</f>
         <v>12</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G41" s="4">
         <v>6.9639150126433701E-3</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H41" s="4">
         <v>2.1363134867243799E-3</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I41" s="4">
         <v>2.1363134867243799E-3</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J41" s="5">
         <v>2.99946797370032E-3</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K41" s="5">
         <v>6.8905581386576797E-3</v>
       </c>
     </row>
-    <row r="41" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F41" s="6">
+    <row r="42" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="6">
         <f>E19</f>
         <v>15</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G42" s="7">
         <v>5.5056571228811997E-3</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H42" s="7">
         <v>1.8334711030340001E-3</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I42" s="7">
         <v>1.8334711030340001E-3</v>
       </c>
-      <c r="J41" s="16">
+      <c r="J42" s="16">
         <v>1.93827300695204E-3</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K42" s="8">
         <v>5.4720625511192004E-3</v>
       </c>
     </row>
-    <row r="43" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F43">
-        <f>3600/F65</f>
-        <v>5695</v>
+    <row r="43" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>26</v>
       </c>
       <c r="G43">
-        <f t="shared" ref="G43:I43" si="4">3600/G65</f>
-        <v>2003</v>
+        <f>AVERAGE(G37:G42)</f>
+        <v>1.4138300482670398E-2</v>
       </c>
       <c r="H43">
+        <f>AVERAGE(H37:H42)</f>
+        <v>8.2333889784776178E-3</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ref="H43:K43" si="4">AVERAGE(I37:I42)</f>
+        <v>8.6697693481316406E-3</v>
+      </c>
+      <c r="J43">
         <f t="shared" si="4"/>
-        <v>3797</v>
-      </c>
-      <c r="I43">
+        <v>2.3102876961504829E-2</v>
+      </c>
+      <c r="K43">
         <f t="shared" si="4"/>
-        <v>3678</v>
+        <v>1.4976251082525633E-2</v>
       </c>
     </row>
-    <row r="44" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F44" s="1"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="13" t="s">
+    <row r="44" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F45" s="1"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="12"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-    </row>
-    <row r="45" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F45" s="3"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
     </row>
     <row r="46" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F46" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K46" s="26" t="s">
-        <v>22</v>
-      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
     </row>
     <row r="47" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F47" s="3">
-        <v>15</v>
-      </c>
-      <c r="G47" s="4">
-        <v>0.309465173734149</v>
-      </c>
-      <c r="H47" s="4">
-        <v>0.262174775817127</v>
-      </c>
-      <c r="I47" s="4">
-        <v>0.24664609754119399</v>
-      </c>
-      <c r="J47" s="15">
-        <v>5.5380529323011997E-2</v>
-      </c>
-      <c r="K47" s="5">
-        <v>0.33348159103366298</v>
+      <c r="F47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" s="18" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F48" s="3">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G48" s="4">
-        <v>0.27977402271997898</v>
+        <v>0.309465173734149</v>
       </c>
       <c r="H48" s="4">
-        <v>0.24719308138958401</v>
+        <v>0.262174775817127</v>
       </c>
       <c r="I48" s="4">
-        <v>0.22151424659107</v>
-      </c>
-      <c r="J48" s="5">
-        <v>7.3967095171081104E-2</v>
+        <v>0.24664609754119399</v>
+      </c>
+      <c r="J48" s="15">
+        <v>5.5380529323011997E-2</v>
       </c>
       <c r="K48" s="5">
-        <v>0.29694786481843399</v>
+        <v>0.33348159103366298</v>
       </c>
     </row>
     <row r="49" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F49" s="3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G49" s="4">
-        <v>0.243960138566896</v>
+        <v>0.27977402271997898</v>
       </c>
       <c r="H49" s="4">
-        <v>0.20761485170226801</v>
+        <v>0.24719308138958401</v>
       </c>
       <c r="I49" s="4">
-        <v>0.19231665221215999</v>
+        <v>0.22151424659107</v>
       </c>
       <c r="J49" s="5">
-        <v>8.0218801958504796E-2</v>
+        <v>7.3967095171081104E-2</v>
       </c>
       <c r="K49" s="5">
-        <v>0.249224139112034</v>
+        <v>0.29694786481843399</v>
       </c>
     </row>
     <row r="50" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F50" s="3">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G50" s="4">
-        <v>0.22131900170556301</v>
+        <v>0.243960138566896</v>
       </c>
       <c r="H50" s="4">
-        <v>0.18770738943512999</v>
+        <v>0.20761485170226801</v>
       </c>
       <c r="I50" s="4">
-        <v>0.17580387638547701</v>
-      </c>
-      <c r="J50" s="15">
-        <v>9.3995127761845099E-2</v>
+        <v>0.19231665221215999</v>
+      </c>
+      <c r="J50" s="5">
+        <v>8.0218801958504796E-2</v>
       </c>
       <c r="K50" s="5">
-        <v>0.22486732884987801</v>
+        <v>0.249224139112034</v>
       </c>
     </row>
     <row r="51" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F51" s="3">
+        <v>75</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0.22131900170556301</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0.18770738943512999</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0.17580387638547701</v>
+      </c>
+      <c r="J51" s="15">
+        <v>9.3995127761845099E-2</v>
+      </c>
+      <c r="K51" s="5">
+        <v>0.22486732884987801</v>
+      </c>
+    </row>
+    <row r="52" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G52" s="4">
         <v>0.20626152701449599</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H52" s="4">
         <v>0.175225277703628</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I52" s="4">
         <v>0.17135087665391799</v>
       </c>
-      <c r="J51" s="15">
+      <c r="J52" s="15">
         <v>0.106971896639363</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K52" s="5">
         <v>0.207818466029801</v>
       </c>
     </row>
-    <row r="52" spans="6:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F52" s="6">
+    <row r="53" spans="6:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F53" s="6">
         <v>125</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G53" s="7">
         <v>0.19440753418047499</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H53" s="7">
         <v>0.174622538458618</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I53" s="7">
         <v>0.167085891915911</v>
       </c>
-      <c r="J52" s="16">
+      <c r="J53" s="16">
         <v>0.109640936767445</v>
       </c>
-      <c r="K52" s="8">
+      <c r="K53" s="8">
         <v>0.195621274424957</v>
       </c>
     </row>
-    <row r="53" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F53" s="1"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I53" s="12"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-    </row>
-    <row r="54" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F54" s="3"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
+    <row r="54" spans="6:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F54" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="4">
+        <f>AVERAGE(G48:G53)</f>
+        <v>0.24253123298692633</v>
+      </c>
+      <c r="H54" s="4">
+        <f t="shared" ref="H54:K54" si="5">AVERAGE(H48:H53)</f>
+        <v>0.20908965241772584</v>
+      </c>
+      <c r="I54" s="4">
+        <f t="shared" si="5"/>
+        <v>0.19578627354995501</v>
+      </c>
+      <c r="J54" s="4">
+        <f t="shared" si="5"/>
+        <v>8.6695731270208506E-2</v>
+      </c>
+      <c r="K54" s="4">
+        <f t="shared" si="5"/>
+        <v>0.25132677737812786</v>
+      </c>
     </row>
     <row r="55" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F55" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K55" s="26" t="s">
-        <v>22</v>
-      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="12"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
     </row>
     <row r="56" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F56" s="3">
-        <v>2</v>
-      </c>
-      <c r="G56" s="4">
-        <v>0.29641344867920899</v>
-      </c>
-      <c r="H56" s="4">
-        <v>0.29641344867920899</v>
-      </c>
-      <c r="I56" s="4">
-        <v>0.13618352822852001</v>
-      </c>
-      <c r="J56" s="4">
-        <v>2.8569970957032201E-3</v>
-      </c>
-      <c r="K56" s="5">
-        <v>0.45997653240821801</v>
-      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
     </row>
     <row r="57" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F57" s="3">
-        <v>4</v>
-      </c>
-      <c r="G57" s="4">
-        <v>0.35234132226750198</v>
-      </c>
-      <c r="H57" s="4">
-        <v>0.31782733262381702</v>
-      </c>
-      <c r="I57" s="4">
-        <v>0.31782733262381702</v>
-      </c>
-      <c r="J57" s="5">
-        <v>0.106099599950435</v>
-      </c>
-      <c r="K57" s="5">
-        <v>0.358936900129949</v>
+      <c r="F57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" s="18" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F58" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G58" s="4">
-        <v>0.34212196627227198</v>
+        <v>0.29641344867920899</v>
       </c>
       <c r="H58" s="4">
-        <v>0.31090286904606101</v>
+        <v>0.29641344867920899</v>
       </c>
       <c r="I58" s="4">
-        <v>0.31090286904606101</v>
-      </c>
-      <c r="J58" s="5">
-        <v>0.183339983690509</v>
+        <v>0.13618352822852001</v>
+      </c>
+      <c r="J58" s="4">
+        <v>2.8569970957032201E-3</v>
       </c>
       <c r="K58" s="5">
-        <v>0.34617194616587499</v>
+        <v>0.45997653240821801</v>
       </c>
     </row>
     <row r="59" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F59" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G59" s="4">
-        <v>0.33079821823171401</v>
+        <v>0.35234132226750198</v>
       </c>
       <c r="H59" s="4">
-        <v>0.303554788889694</v>
+        <v>0.31782733262381702</v>
       </c>
       <c r="I59" s="4">
-        <v>0.30481937487161098</v>
-      </c>
-      <c r="J59" s="15">
-        <v>0.23845013542764101</v>
+        <v>0.31782733262381702</v>
+      </c>
+      <c r="J59" s="5">
+        <v>0.106099599950435</v>
       </c>
       <c r="K59" s="5">
-        <v>0.33257397105638598</v>
+        <v>0.358936900129949</v>
       </c>
     </row>
     <row r="60" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F60" s="3">
+        <v>6</v>
+      </c>
+      <c r="G60" s="4">
+        <v>0.34212196627227198</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0.31090286904606101</v>
+      </c>
+      <c r="I60" s="4">
+        <v>0.31090286904606101</v>
+      </c>
+      <c r="J60" s="5">
+        <v>0.183339983690509</v>
+      </c>
+      <c r="K60" s="5">
+        <v>0.34617194616587499</v>
+      </c>
+    </row>
+    <row r="61" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F61" s="3">
+        <v>9</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0.33079821823171401</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0.303554788889694</v>
+      </c>
+      <c r="I61" s="4">
+        <v>0.30481937487161098</v>
+      </c>
+      <c r="J61" s="15">
+        <v>0.23845013542764101</v>
+      </c>
+      <c r="K61" s="5">
+        <v>0.33257397105638598</v>
+      </c>
+    </row>
+    <row r="62" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F62" s="3">
         <v>12</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G62" s="4">
         <v>0.321723791094226</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H62" s="4">
         <v>0.30218646143348599</v>
       </c>
-      <c r="I60" s="4">
+      <c r="I62" s="4">
         <v>0.30218646143348599</v>
       </c>
-      <c r="J60" s="15">
+      <c r="J62" s="15">
         <v>0.24995468979448701</v>
       </c>
-      <c r="K60" s="5">
+      <c r="K62" s="5">
         <v>0.32299758748266799</v>
       </c>
     </row>
-    <row r="61" spans="6:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F61" s="6">
+    <row r="63" spans="6:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F63" s="6">
         <v>15</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G63" s="7">
         <v>0.316514332149329</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H63" s="7">
         <v>0.29251822423375801</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I63" s="7">
         <v>0.29251822423375801</v>
       </c>
-      <c r="J61" s="16">
+      <c r="J63" s="16">
         <v>0.26169082613972799</v>
       </c>
-      <c r="K61" s="8">
+      <c r="K63" s="8">
         <v>0.31715505426882701</v>
-      </c>
-    </row>
-    <row r="63" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F63" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="64" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="G64">
+        <f>AVERAGE(G58:G63)</f>
+        <v>0.32665217978237537</v>
+      </c>
+      <c r="H64">
+        <f t="shared" ref="H64:K64" si="6">AVERAGE(H58:H63)</f>
+        <v>0.30390052081767083</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="6"/>
+        <v>0.27740629840620884</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="6"/>
+        <v>0.17373203868308387</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="6"/>
+        <v>0.35630199858532047</v>
       </c>
     </row>
     <row r="65" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F65">
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F67">
         <v>0.6321334503950834</v>
       </c>
-      <c r="G65">
+      <c r="G67">
         <v>1.7973040439340988</v>
       </c>
-      <c r="H65">
+      <c r="H67">
         <v>0.94811693442191203</v>
       </c>
-      <c r="I65">
+      <c r="I67">
         <v>0.97879282218597063</v>
-      </c>
-    </row>
-    <row r="69" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F69" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" t="s">
-        <v>16</v>
-      </c>
-      <c r="H69" t="s">
-        <v>18</v>
-      </c>
-      <c r="I69" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E70" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70">
-        <v>1192</v>
-      </c>
-      <c r="G70">
-        <v>5</v>
-      </c>
-      <c r="H70">
-        <v>5</v>
-      </c>
-      <c r="I70">
-        <v>2</v>
       </c>
     </row>
     <row r="71" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E71" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71">
-        <v>1192</v>
-      </c>
-      <c r="G71">
-        <v>5</v>
-      </c>
-      <c r="H71">
-        <v>5</v>
-      </c>
-      <c r="I71">
-        <v>12</v>
+      <c r="F71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F72">
         <v>1192</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F73">
         <v>1192</v>
       </c>
       <c r="G73">
+        <v>5</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+      <c r="I73">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74">
         <v>1192</v>
       </c>
-      <c r="H73">
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75">
         <v>1192</v>
       </c>
-      <c r="I73">
+      <c r="G75">
+        <v>1192</v>
+      </c>
+      <c r="H75">
+        <v>1192</v>
+      </c>
+      <c r="I75">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
+  <mergeCells count="16">
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="I12:K12"/>
@@ -9403,6 +9891,11 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
